--- a/BusinessManagement/StatusDocument.xlsx
+++ b/BusinessManagement/StatusDocument.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
@@ -101,17 +99,50 @@
     <t xml:space="preserve">Plan props, back grounds, instruments for shooting and software for editing and version control of content </t>
   </si>
   <si>
-    <t>How much time Swapan sir would dedicate per week</t>
-  </si>
-  <si>
-    <t>How much time each individual Content stake holder need per week. How do we ensure that?</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>9-Nov: SR to review</t>
+  </si>
+  <si>
+    <t>9-Nov: AC Completed</t>
+  </si>
+  <si>
+    <t>Create budget for IX CBSE Bio</t>
+  </si>
+  <si>
+    <t>9-Nov: TBD on 15-Nov Meeting</t>
+  </si>
+  <si>
+    <t>Budgeting for entire Content Creation Project</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Get full time manager for Content creation</t>
+  </si>
+  <si>
+    <t>9-Nov: SR to recruit</t>
+  </si>
+  <si>
+    <t>9-Nov: SR agreed, TBD after resources onboarding</t>
+  </si>
+  <si>
+    <t>9-Nov: SR - Rjarhat and Golpark studios. AC - Patuli property. To be finalized</t>
+  </si>
+  <si>
+    <t>9-Nov: Deadline decided - end of March.</t>
+  </si>
+  <si>
+    <t>9-Nov: Deadline decided - end of November</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,18 +153,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -163,12 +226,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,285 +550,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="97.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G12" s="11">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9">
         <v>44869</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
